--- a/InterfaceAuto/data/Intelligent_mediation_web/Intelligent_mediation_web.xlsx
+++ b/InterfaceAuto/data/Intelligent_mediation_web/Intelligent_mediation_web.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29211DB9-BA2A-44F1-A2B7-B067868F4278}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2068536B-3C1E-43A3-88FC-012123749A56}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135705" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="137340" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auth" sheetId="1" r:id="rId1"/>
@@ -1324,7 +1324,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
